--- a/Schablonen/Radiologie_ver1.4.xlsx
+++ b/Schablonen/Radiologie_ver1.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nextcloud\Befundung\Schablonen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\Git\radiospeech\Schablonen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268C89D0-19EC-4943-B6EB-90D5CADE3F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65410B93-4D2F-4A03-9D75-AE3E28317F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Textbausteine befundeingabestru" sheetId="1" r:id="rId1"/>
@@ -396,18 +396,9 @@
     <t>I36</t>
   </si>
   <si>
-    <t>Herzklappen-OP, HK OP;ACB, ACVB</t>
-  </si>
-  <si>
     <t>Postoperativer Status [nach %I36%. ]</t>
   </si>
   <si>
-    <t>Klappen-OP</t>
-  </si>
-  <si>
-    <t>Klappen Op;Klappen-OP</t>
-  </si>
-  <si>
     <t>I37</t>
   </si>
   <si>
@@ -1188,9 +1179,6 @@
     <t>... Dislokation</t>
   </si>
   <si>
-    <t>Herzklappen-OP;ACB, ACVB</t>
-  </si>
-  <si>
     <t>Zahl</t>
   </si>
   <si>
@@ -1348,6 +1336,18 @@
   </si>
   <si>
     <t>Herzschrittmacher</t>
+  </si>
+  <si>
+    <t>Herzklappen-OP</t>
+  </si>
+  <si>
+    <t>Herzklappen Op;Herzklappen OP</t>
+  </si>
+  <si>
+    <t>Klappen OP, HK OP;ACB, ACVB</t>
+  </si>
+  <si>
+    <t>Klappen-OP;ACB, ACVB</t>
   </si>
 </sst>
 </file>
@@ -1733,10 +1733,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Q1" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -1864,27 +1864,27 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>27</v>
@@ -1896,49 +1896,49 @@
         <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K9" t="s">
         <v>30</v>
@@ -1947,10 +1947,10 @@
         <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>34</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
         <v>32</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2009,10 +2009,10 @@
         <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P13" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2058,10 +2058,10 @@
         <v>42</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P19" t="s">
         <v>57</v>
@@ -2154,7 +2154,7 @@
         <v>42</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P22" t="s">
         <v>63</v>
@@ -2201,7 +2201,7 @@
         <v>42</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>68</v>
@@ -2237,7 +2237,7 @@
         <v>42</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P27" t="s">
         <v>73</v>
@@ -2271,7 +2271,7 @@
         <v>42</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P29" t="s">
         <v>78</v>
@@ -2305,7 +2305,7 @@
         <v>42</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P31" t="s">
         <v>83</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="O34" s="1"/>
       <c r="P34" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>99</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M37" s="1"/>
       <c r="O37" t="s">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>104</v>
@@ -2464,19 +2464,19 @@
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K41" t="s">
         <v>111</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P41" t="s">
         <v>112</v>
@@ -2505,7 +2505,7 @@
         <v>42</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="N44" s="5"/>
       <c r="O44" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
@@ -2535,68 +2535,68 @@
         <v>122</v>
       </c>
       <c r="L45" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="M45" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O45" t="s">
+        <v>378</v>
+      </c>
+      <c r="P45" t="s">
         <v>123</v>
-      </c>
-      <c r="O45" t="s">
-        <v>381</v>
-      </c>
-      <c r="P45" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
+        <v>437</v>
+      </c>
+      <c r="F46" t="s">
+        <v>438</v>
+      </c>
+      <c r="K46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L46" t="s">
         <v>125</v>
       </c>
-      <c r="F46" t="s">
+      <c r="M46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K46" t="s">
+      <c r="P46" t="s">
         <v>127</v>
-      </c>
-      <c r="L46" t="s">
-        <v>128</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P46" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M47" s="1"/>
       <c r="O47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P47" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -2604,132 +2604,132 @@
         <v>34</v>
       </c>
       <c r="P49" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
       </c>
       <c r="I50" s="1"/>
       <c r="P50" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F51" t="s">
+        <v>405</v>
+      </c>
+      <c r="K51" t="s">
+        <v>138</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M51" t="s">
         <v>409</v>
       </c>
-      <c r="K51" t="s">
-        <v>141</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="P51" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="R51" t="s">
         <v>413</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="R51" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P52" s="6"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" t="s">
+        <v>406</v>
+      </c>
+      <c r="K53" t="s">
         <v>144</v>
       </c>
-      <c r="F53" t="s">
-        <v>410</v>
-      </c>
-      <c r="K53" t="s">
-        <v>147</v>
-      </c>
       <c r="L53" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="R53" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P54" s="6"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" t="s">
+        <v>407</v>
+      </c>
+      <c r="K55" t="s">
         <v>146</v>
       </c>
-      <c r="F55" t="s">
-        <v>411</v>
-      </c>
-      <c r="K55" t="s">
-        <v>149</v>
-      </c>
       <c r="L55" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="M55" t="s">
+        <v>409</v>
+      </c>
+      <c r="P55" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="M55" t="s">
-        <v>413</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="R55" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M56" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P56" s="6"/>
     </row>
@@ -2738,145 +2738,145 @@
         <v>34</v>
       </c>
       <c r="P57" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="R58" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" t="s">
+        <v>153</v>
+      </c>
+      <c r="I59" t="s">
+        <v>150</v>
+      </c>
+      <c r="K59" t="s">
+        <v>154</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F59" t="s">
-        <v>156</v>
-      </c>
-      <c r="I59" t="s">
-        <v>153</v>
-      </c>
-      <c r="K59" t="s">
+      <c r="P59" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K61" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L61" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" t="s">
+        <v>164</v>
+      </c>
+      <c r="I62" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" t="s">
+        <v>165</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R62" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F62" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" t="s">
-        <v>153</v>
-      </c>
-      <c r="K62" t="s">
-        <v>168</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O64" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I65" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>41</v>
@@ -2886,37 +2886,37 @@
       </c>
       <c r="O65" s="1"/>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K67" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O67" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -2924,35 +2924,35 @@
         <v>34</v>
       </c>
       <c r="P68" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K70" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s">
         <v>41</v>
@@ -2961,36 +2961,36 @@
         <v>42</v>
       </c>
       <c r="O70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" t="s">
+        <v>188</v>
+      </c>
+      <c r="K71" t="s">
+        <v>189</v>
+      </c>
+      <c r="L71" t="s">
         <v>190</v>
       </c>
-      <c r="F71" t="s">
+      <c r="M71" t="s">
         <v>191</v>
       </c>
-      <c r="K71" t="s">
+      <c r="O71" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P71" t="s">
         <v>192</v>
       </c>
-      <c r="L71" t="s">
+      <c r="R71" t="s">
         <v>193</v>
-      </c>
-      <c r="M71" t="s">
-        <v>194</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="P71" t="s">
-        <v>195</v>
-      </c>
-      <c r="R71" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -2998,185 +2998,185 @@
         <v>9</v>
       </c>
       <c r="J72" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J74" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q74" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J75" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q75" t="s">
         <v>203</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" t="s">
+        <v>205</v>
+      </c>
+      <c r="J76" t="s">
+        <v>200</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F76" t="s">
+      <c r="M76" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="J76" t="s">
-        <v>203</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L77" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G78" t="s">
         <v>32</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P78" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I79" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P79" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R79" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F80" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P80" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F81" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P81" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" t="s">
+        <v>224</v>
+      </c>
+      <c r="K82" t="s">
+        <v>225</v>
+      </c>
+      <c r="L82" t="s">
         <v>226</v>
-      </c>
-      <c r="F82" t="s">
-        <v>227</v>
-      </c>
-      <c r="K82" t="s">
-        <v>228</v>
-      </c>
-      <c r="L82" t="s">
-        <v>229</v>
       </c>
       <c r="N82">
         <v>2</v>
       </c>
       <c r="O82" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -3184,146 +3184,146 @@
         <v>34</v>
       </c>
       <c r="P83" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F84" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G84" t="s">
         <v>32</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F85" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I85" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F86" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I86" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E87" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F87" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G87" t="s">
         <v>32</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R87" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
+        <v>245</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I88" t="s">
+        <v>242</v>
+      </c>
+      <c r="P88" t="s">
+        <v>247</v>
+      </c>
+      <c r="R88" t="s">
         <v>248</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I88" t="s">
-        <v>245</v>
-      </c>
-      <c r="P88" t="s">
-        <v>250</v>
-      </c>
-      <c r="R88" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
+        <v>249</v>
+      </c>
+      <c r="F89" t="s">
+        <v>250</v>
+      </c>
+      <c r="I89" t="s">
+        <v>242</v>
+      </c>
+      <c r="P89" t="s">
+        <v>251</v>
+      </c>
+      <c r="R89" t="s">
         <v>252</v>
-      </c>
-      <c r="F89" t="s">
-        <v>253</v>
-      </c>
-      <c r="I89" t="s">
-        <v>245</v>
-      </c>
-      <c r="P89" t="s">
-        <v>254</v>
-      </c>
-      <c r="R89" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" t="s">
+        <v>254</v>
+      </c>
+      <c r="I90" t="s">
+        <v>242</v>
+      </c>
+      <c r="P90" t="s">
+        <v>255</v>
+      </c>
+      <c r="R90" t="s">
         <v>256</v>
-      </c>
-      <c r="F90" t="s">
-        <v>257</v>
-      </c>
-      <c r="I90" t="s">
-        <v>245</v>
-      </c>
-      <c r="P90" t="s">
-        <v>258</v>
-      </c>
-      <c r="R90" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
+        <v>257</v>
+      </c>
+      <c r="F91" t="s">
+        <v>258</v>
+      </c>
+      <c r="I91" t="s">
+        <v>242</v>
+      </c>
+      <c r="P91" t="s">
+        <v>259</v>
+      </c>
+      <c r="R91" t="s">
         <v>260</v>
-      </c>
-      <c r="F91" t="s">
-        <v>261</v>
-      </c>
-      <c r="I91" t="s">
-        <v>245</v>
-      </c>
-      <c r="P91" t="s">
-        <v>262</v>
-      </c>
-      <c r="R91" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -3331,153 +3331,153 @@
         <v>9</v>
       </c>
       <c r="J92" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E93" t="s">
+        <v>262</v>
+      </c>
+      <c r="F93" t="s">
+        <v>263</v>
+      </c>
+      <c r="J93" t="s">
         <v>264</v>
       </c>
-      <c r="E93" t="s">
-        <v>265</v>
-      </c>
-      <c r="F93" t="s">
-        <v>266</v>
-      </c>
-      <c r="J93" t="s">
-        <v>267</v>
-      </c>
       <c r="Q93" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F94" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J94" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q94" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F95" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J95" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q95" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" t="s">
+        <v>273</v>
+      </c>
+      <c r="K96" t="s">
         <v>274</v>
       </c>
-      <c r="E96" t="s">
+      <c r="L96" t="s">
         <v>275</v>
       </c>
-      <c r="F96" t="s">
+      <c r="M96" t="s">
         <v>276</v>
       </c>
-      <c r="K96" t="s">
+      <c r="P96" t="s">
         <v>277</v>
       </c>
-      <c r="L96" t="s">
+      <c r="R96" t="s">
         <v>278</v>
-      </c>
-      <c r="M96" t="s">
-        <v>279</v>
-      </c>
-      <c r="P96" t="s">
-        <v>280</v>
-      </c>
-      <c r="R96" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K97" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K98" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L98" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M98" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
+        <v>283</v>
+      </c>
+      <c r="F99" t="s">
+        <v>283</v>
+      </c>
+      <c r="K99" t="s">
+        <v>284</v>
+      </c>
+      <c r="L99" t="s">
+        <v>155</v>
+      </c>
+      <c r="M99" t="s">
+        <v>156</v>
+      </c>
+      <c r="P99" t="s">
+        <v>285</v>
+      </c>
+      <c r="R99" t="s">
         <v>286</v>
-      </c>
-      <c r="F99" t="s">
-        <v>286</v>
-      </c>
-      <c r="K99" t="s">
-        <v>287</v>
-      </c>
-      <c r="L99" t="s">
-        <v>158</v>
-      </c>
-      <c r="M99" t="s">
-        <v>159</v>
-      </c>
-      <c r="P99" t="s">
-        <v>288</v>
-      </c>
-      <c r="R99" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K100" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L100" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M100" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -3486,11 +3486,11 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q101" s="1"/>
       <c r="R101" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
@@ -3498,126 +3498,126 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F102" t="s">
+        <v>294</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K102" t="s">
+        <v>295</v>
+      </c>
+      <c r="L102" t="s">
+        <v>155</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P102" t="s">
+        <v>296</v>
+      </c>
+      <c r="R102" t="s">
         <v>297</v>
-      </c>
-      <c r="F102" t="s">
-        <v>297</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="K102" t="s">
-        <v>298</v>
-      </c>
-      <c r="L102" t="s">
-        <v>158</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P102" t="s">
-        <v>299</v>
-      </c>
-      <c r="R102" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K103" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K104" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L104" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I105" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K105" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L105" t="s">
         <v>100</v>
       </c>
       <c r="O105" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P105" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="R105" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K106" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L106" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O106" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K107" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L107" t="s">
         <v>100</v>
       </c>
       <c r="O107" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K108" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L108" t="s">
         <v>100</v>
       </c>
       <c r="O108" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
+        <v>314</v>
+      </c>
+      <c r="F109" t="s">
+        <v>315</v>
+      </c>
+      <c r="I109" t="s">
+        <v>150</v>
+      </c>
+      <c r="P109" t="s">
+        <v>316</v>
+      </c>
+      <c r="R109" t="s">
         <v>317</v>
-      </c>
-      <c r="F109" t="s">
-        <v>318</v>
-      </c>
-      <c r="I109" t="s">
-        <v>153</v>
-      </c>
-      <c r="P109" t="s">
-        <v>319</v>
-      </c>
-      <c r="R109" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
@@ -3633,75 +3633,75 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="P110" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E111" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F111" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G111" t="s">
         <v>32</v>
       </c>
       <c r="P111" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F112" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P112" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F113" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P113" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="R113" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
+        <v>327</v>
+      </c>
+      <c r="F114" t="s">
+        <v>327</v>
+      </c>
+      <c r="K114" t="s">
+        <v>328</v>
+      </c>
+      <c r="L114" t="s">
+        <v>155</v>
+      </c>
+      <c r="M114" t="s">
+        <v>156</v>
+      </c>
+      <c r="O114" t="s">
+        <v>329</v>
+      </c>
+      <c r="P114" t="s">
         <v>330</v>
       </c>
-      <c r="F114" t="s">
-        <v>330</v>
-      </c>
-      <c r="K114" t="s">
+      <c r="R114" t="s">
         <v>331</v>
-      </c>
-      <c r="L114" t="s">
-        <v>158</v>
-      </c>
-      <c r="M114" t="s">
-        <v>159</v>
-      </c>
-      <c r="O114" t="s">
-        <v>332</v>
-      </c>
-      <c r="P114" t="s">
-        <v>333</v>
-      </c>
-      <c r="R114" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -3717,18 +3717,18 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="P115" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E116" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F116" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -3736,70 +3736,70 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="P116" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F117" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L117" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M117" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P117" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="R117" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I118" s="1"/>
       <c r="K118" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L118" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M118" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I119" s="1"/>
       <c r="K119" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L119" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M119" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F120" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L120" t="s">
         <v>41</v>
@@ -3808,32 +3808,32 @@
         <v>42</v>
       </c>
       <c r="P120" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="R120" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K121" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L121" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M121" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K122" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L122" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M122" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -3841,7 +3841,7 @@
         <v>34</v>
       </c>
       <c r="P123" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -3849,155 +3849,155 @@
         <v>9</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P124" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E125" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F125" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
       </c>
       <c r="P125" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
+        <v>353</v>
+      </c>
+      <c r="F126" t="s">
+        <v>354</v>
+      </c>
+      <c r="J126" t="s">
+        <v>355</v>
+      </c>
+      <c r="K126" t="s">
         <v>356</v>
       </c>
-      <c r="F126" t="s">
+      <c r="L126" t="s">
+        <v>170</v>
+      </c>
+      <c r="M126" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q126" t="s">
         <v>357</v>
-      </c>
-      <c r="J126" t="s">
-        <v>358</v>
-      </c>
-      <c r="K126" t="s">
-        <v>359</v>
-      </c>
-      <c r="L126" t="s">
-        <v>173</v>
-      </c>
-      <c r="M126" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
+        <v>358</v>
+      </c>
+      <c r="F127" t="s">
+        <v>359</v>
+      </c>
+      <c r="J127" t="s">
+        <v>355</v>
+      </c>
+      <c r="K127" t="s">
+        <v>360</v>
+      </c>
+      <c r="L127" t="s">
+        <v>155</v>
+      </c>
+      <c r="M127" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q127" t="s">
         <v>361</v>
-      </c>
-      <c r="F127" t="s">
-        <v>362</v>
-      </c>
-      <c r="J127" t="s">
-        <v>358</v>
-      </c>
-      <c r="K127" t="s">
-        <v>363</v>
-      </c>
-      <c r="L127" t="s">
-        <v>158</v>
-      </c>
-      <c r="M127" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K128" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M128" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="129" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F129" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J129" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K129" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L129" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M129" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q129" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="5:18" x14ac:dyDescent="0.25">
       <c r="K130" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M130" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="131" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
+        <v>367</v>
+      </c>
+      <c r="F131" t="s">
+        <v>367</v>
+      </c>
+      <c r="K131" t="s">
+        <v>368</v>
+      </c>
+      <c r="L131" t="s">
+        <v>369</v>
+      </c>
+      <c r="M131" t="s">
         <v>370</v>
       </c>
-      <c r="F131" t="s">
-        <v>370</v>
-      </c>
-      <c r="K131" t="s">
+      <c r="O131" t="s">
+        <v>383</v>
+      </c>
+      <c r="P131" t="s">
         <v>371</v>
       </c>
-      <c r="L131" t="s">
+      <c r="R131" t="s">
         <v>372</v>
-      </c>
-      <c r="M131" t="s">
-        <v>373</v>
-      </c>
-      <c r="O131" t="s">
-        <v>386</v>
-      </c>
-      <c r="P131" t="s">
-        <v>374</v>
-      </c>
-      <c r="R131" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="132" spans="5:18" x14ac:dyDescent="0.25">
       <c r="K132" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L132" t="s">
         <v>100</v>
       </c>
       <c r="O132" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
